--- a/docentes/Lopez Pacheco Judith Gabriela - Estadisticos 20242.xlsx
+++ b/docentes/Lopez Pacheco Judith Gabriela - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
   <si>
     <t>Mat</t>
   </si>
@@ -73,34 +73,52 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
     <t>ARMAS</t>
   </si>
   <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
     <t>CHICO</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
     <t>MUÑOZ</t>
   </si>
   <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>LEYVA</t>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>TORRES</t>
   </si>
   <si>
     <t>MAZA</t>
@@ -109,16 +127,31 @@
     <t>DORANTES</t>
   </si>
   <si>
-    <t>MORA</t>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
   </si>
   <si>
     <t>SALINAS</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>TLATEMOHUE</t>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
   </si>
   <si>
     <t>BALDERAS</t>
@@ -127,19 +160,10 @@
     <t>DOLORES</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>REYNOSO</t>
-  </si>
-  <si>
     <t>CORONA</t>
   </si>
   <si>
-    <t>REYES</t>
+    <t>GUTIERREZ</t>
   </si>
   <si>
     <t>ENCARNACION</t>
@@ -148,46 +172,64 @@
     <t>PORRAS</t>
   </si>
   <si>
-    <t>TORRES</t>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>VICTOR YAEL</t>
   </si>
   <si>
     <t>JOSE GUSTAVO</t>
   </si>
   <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>DEREK</t>
+  </si>
+  <si>
+    <t>CARLOS ARGEL</t>
+  </si>
+  <si>
+    <t>MAYRIN GUADALUPE</t>
+  </si>
+  <si>
+    <t>DANIELA LILI</t>
+  </si>
+  <si>
+    <t>ALIN MARIEL</t>
+  </si>
+  <si>
+    <t>AMISADAY</t>
+  </si>
+  <si>
+    <t>URIEL ARTURO</t>
+  </si>
+  <si>
     <t>SERGIO GISELL</t>
   </si>
   <si>
+    <t>YARETH</t>
+  </si>
+  <si>
+    <t>GONZALO</t>
+  </si>
+  <si>
+    <t>JOSE ABEL</t>
+  </si>
+  <si>
+    <t>LUIS ROBERTO</t>
+  </si>
+  <si>
+    <t>ERIKA VALERIA</t>
+  </si>
+  <si>
+    <t>KEVIN JESUS</t>
+  </si>
+  <si>
     <t>ROBERTO</t>
   </si>
   <si>
-    <t>YARETH</t>
-  </si>
-  <si>
-    <t>GONZALO</t>
-  </si>
-  <si>
-    <t>YOSGART</t>
-  </si>
-  <si>
-    <t>BRAYAN</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>JOSE ABEL</t>
-  </si>
-  <si>
-    <t>JOHANA</t>
-  </si>
-  <si>
-    <t>EUNICE GUADALUPE</t>
-  </si>
-  <si>
-    <t>KEVIN JESUS</t>
-  </si>
-  <si>
-    <t>MARELY</t>
+    <t>SANTIAGO</t>
   </si>
 </sst>
 </file>
@@ -711,16 +753,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>61.11</v>
+      </c>
+      <c r="H2">
+        <v>5.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -734,16 +779,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>78.56999999999999</v>
+      </c>
+      <c r="H3">
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -757,16 +805,19 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>83.33</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -825,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
         <v>22</v>
       </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
       <c r="G2">
-        <v>38.89</v>
+        <v>61.11</v>
       </c>
       <c r="H2">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -851,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>67.86</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H3">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -877,16 +928,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>76.67</v>
+        <v>83.33</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +947,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -931,16 +982,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920304</v>
+        <v>24330051920092</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -954,16 +1005,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920090</v>
+        <v>24330051920304</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -977,16 +1028,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920127</v>
+        <v>24330051920305</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1000,16 +1051,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920098</v>
+        <v>24330051920113</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1023,16 +1074,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>23330051920036</v>
+        <v>24330051920315</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1046,22 +1097,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920148</v>
+        <v>24330051920389</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1069,22 +1120,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920149</v>
+        <v>24330051920330</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1092,22 +1143,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>24330051920106</v>
+        <v>24330051920246</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1115,22 +1166,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920144</v>
+        <v>24330051920182</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1138,85 +1189,85 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>24330051920243</v>
+        <v>24330051920093</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>24330051920226</v>
+        <v>24330051920090</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>23330051920298</v>
+        <v>24330051920098</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>23330051920224</v>
+        <v>23330051920036</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1230,24 +1281,139 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>24330051920228</v>
+        <v>24330051920144</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>24330051920306</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>24330051920238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
         <v>10</v>
       </c>
-      <c r="G15">
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>23330051920298</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>23330051920224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>24330051920206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
         <v>2</v>
       </c>
     </row>

--- a/docentes/Lopez Pacheco Judith Gabriela - Estadisticos 20242.xlsx
+++ b/docentes/Lopez Pacheco Judith Gabriela - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
   <si>
     <t>Mat</t>
   </si>
@@ -88,45 +88,51 @@
     <t>VENTURA</t>
   </si>
   <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
     <t>RUIZ</t>
   </si>
   <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>ZUNO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
+    <t>MAZA</t>
+  </si>
+  <si>
+    <t>DORANTES</t>
   </si>
   <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>MAZA</t>
-  </si>
-  <si>
-    <t>DORANTES</t>
-  </si>
-  <si>
     <t>PORTUGAL</t>
   </si>
   <si>
@@ -166,6 +172,9 @@
     <t>GUTIERREZ</t>
   </si>
   <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
     <t>ENCARNACION</t>
   </si>
   <si>
@@ -190,43 +199,49 @@
     <t>CARLOS ARGEL</t>
   </si>
   <si>
+    <t>DANIELA LILI</t>
+  </si>
+  <si>
+    <t>ALIN MARIEL</t>
+  </si>
+  <si>
+    <t>AMISADAY</t>
+  </si>
+  <si>
+    <t>AYLIN ABIGAIL</t>
+  </si>
+  <si>
+    <t>URIEL ARTURO</t>
+  </si>
+  <si>
+    <t>SERGIO GISELL</t>
+  </si>
+  <si>
+    <t>YARETH</t>
+  </si>
+  <si>
+    <t>GONZALO</t>
+  </si>
+  <si>
+    <t>JOSE ABEL</t>
+  </si>
+  <si>
+    <t>LUIS ROBERTO</t>
+  </si>
+  <si>
+    <t>ELIZABETH MADAI</t>
+  </si>
+  <si>
     <t>MAYRIN GUADALUPE</t>
   </si>
   <si>
-    <t>DANIELA LILI</t>
-  </si>
-  <si>
-    <t>ALIN MARIEL</t>
-  </si>
-  <si>
-    <t>AMISADAY</t>
-  </si>
-  <si>
-    <t>URIEL ARTURO</t>
-  </si>
-  <si>
-    <t>SERGIO GISELL</t>
-  </si>
-  <si>
-    <t>YARETH</t>
-  </si>
-  <si>
-    <t>GONZALO</t>
-  </si>
-  <si>
-    <t>JOSE ABEL</t>
-  </si>
-  <si>
-    <t>LUIS ROBERTO</t>
+    <t>KEVIN JESUS</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
   </si>
   <si>
     <t>ERIKA VALERIA</t>
-  </si>
-  <si>
-    <t>KEVIN JESUS</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
   </si>
   <si>
     <t>SANTIAGO</t>
@@ -947,7 +962,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -988,10 +1003,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1011,10 +1026,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1034,10 +1049,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1057,10 +1072,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1080,10 +1095,10 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1097,16 +1112,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920389</v>
+        <v>24330051920330</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1120,16 +1135,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920330</v>
+        <v>24330051920246</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1143,22 +1158,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>24330051920246</v>
+        <v>24330051920182</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1166,16 +1181,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920182</v>
+        <v>24330051920187</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1195,10 +1210,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1218,10 +1233,10 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1241,10 +1256,10 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1264,10 +1279,10 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1287,10 +1302,10 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1310,10 +1325,10 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1327,16 +1342,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>24330051920238</v>
+        <v>24330051920398</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1350,22 +1365,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>23330051920298</v>
+        <v>24330051920389</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1373,47 +1388,93 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>23330051920224</v>
+        <v>23330051920298</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>24330051920206</v>
+        <v>23330051920224</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>24330051920238</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>24330051920206</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>2</v>
       </c>
     </row>
